--- a/MVP/SHOPPING_LISTS/SAM.xlsx
+++ b/MVP/SHOPPING_LISTS/SAM.xlsx
@@ -121,7 +121,7 @@
     <t>13-017540</t>
   </si>
   <si>
-    <t>13-017714</t>
+    <t>13-017712</t>
   </si>
   <si>
     <t>M2.5 X 6 SHCS</t>
@@ -199,7 +199,7 @@
     <t>M4 FLAT WASHER</t>
   </si>
   <si>
-    <t>4 X 12 DP</t>
+    <t>4 X 8 DP</t>
   </si>
   <si>
     <t>SAM</t>
@@ -280,7 +280,7 @@
     <t>DIN 125 A4 M4</t>
   </si>
   <si>
-    <t>DIN 7 A1 4m6 X 12</t>
+    <t>DIN 7 A1 4m6 X 8</t>
   </si>
   <si>
     <t>AISI Type 316L stainless steel</t>
@@ -706,7 +706,7 @@
     </row>
     <row r="2" spans="1:9">
       <c r="B2" s="1">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>9</v>
@@ -729,7 +729,7 @@
     </row>
     <row r="3" spans="1:9">
       <c r="B3" s="1">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>10</v>
@@ -752,7 +752,7 @@
     </row>
     <row r="4" spans="1:9">
       <c r="B4" s="1">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>11</v>
@@ -775,7 +775,7 @@
     </row>
     <row r="5" spans="1:9">
       <c r="B5" s="1">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>12</v>
@@ -798,7 +798,7 @@
     </row>
     <row r="6" spans="1:9">
       <c r="B6" s="1">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>13</v>
@@ -821,7 +821,7 @@
     </row>
     <row r="7" spans="1:9">
       <c r="B7" s="1">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>14</v>
@@ -844,7 +844,7 @@
     </row>
     <row r="8" spans="1:9">
       <c r="B8" s="1">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>15</v>
@@ -867,7 +867,7 @@
     </row>
     <row r="9" spans="1:9">
       <c r="B9" s="1">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>16</v>
@@ -890,7 +890,7 @@
     </row>
     <row r="10" spans="1:9">
       <c r="B10" s="1">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>17</v>
@@ -913,7 +913,7 @@
     </row>
     <row r="11" spans="1:9">
       <c r="B11" s="1">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>18</v>
@@ -936,7 +936,7 @@
     </row>
     <row r="12" spans="1:9">
       <c r="B12" s="1">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>19</v>
@@ -959,7 +959,7 @@
     </row>
     <row r="13" spans="1:9">
       <c r="B13" s="1">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>20</v>
@@ -982,7 +982,7 @@
     </row>
     <row r="14" spans="1:9">
       <c r="B14" s="1">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>21</v>
@@ -1005,7 +1005,7 @@
     </row>
     <row r="15" spans="1:9">
       <c r="B15" s="1">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>22</v>
@@ -1028,7 +1028,7 @@
     </row>
     <row r="16" spans="1:9">
       <c r="B16" s="1">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>23</v>
@@ -1051,7 +1051,7 @@
     </row>
     <row r="17" spans="2:9">
       <c r="B17" s="1">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>24</v>
@@ -1074,7 +1074,7 @@
     </row>
     <row r="18" spans="2:9">
       <c r="B18" s="1">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>25</v>
@@ -1097,7 +1097,7 @@
     </row>
     <row r="19" spans="2:9">
       <c r="B19" s="1">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>26</v>
@@ -1120,7 +1120,7 @@
     </row>
     <row r="20" spans="2:9">
       <c r="B20" s="1">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>27</v>
@@ -1143,7 +1143,7 @@
     </row>
     <row r="21" spans="2:9">
       <c r="B21" s="1">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>28</v>
@@ -1166,7 +1166,7 @@
     </row>
     <row r="22" spans="2:9">
       <c r="B22" s="1">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>29</v>
@@ -1189,7 +1189,7 @@
     </row>
     <row r="23" spans="2:9">
       <c r="B23" s="1">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>30</v>
@@ -1212,7 +1212,7 @@
     </row>
     <row r="24" spans="2:9">
       <c r="B24" s="1">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>31</v>
@@ -1235,7 +1235,7 @@
     </row>
     <row r="25" spans="2:9">
       <c r="B25" s="1">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>32</v>
@@ -1258,7 +1258,7 @@
     </row>
     <row r="26" spans="2:9">
       <c r="B26" s="1">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>33</v>
@@ -1281,7 +1281,7 @@
     </row>
     <row r="27" spans="2:9">
       <c r="B27" s="1">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>34</v>
